--- a/everymac.xlsx
+++ b/everymac.xlsx
@@ -15,13 +15,14 @@
     <sheet name="mb" sheetId="6" r:id="rId6"/>
     <sheet name="mini" sheetId="7" r:id="rId7"/>
     <sheet name="macpro" sheetId="8" r:id="rId8"/>
+    <sheet name="imac" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4600" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5868" uniqueCount="2069">
   <si>
     <t>Intro.</t>
   </si>
@@ -4992,6 +4993,1242 @@
   </si>
   <si>
     <t>Complete Mac Pro "Twelve Core" 2.7 (Late 2013) Specs</t>
+  </si>
+  <si>
+    <t>May 6, 1998*</t>
+  </si>
+  <si>
+    <t>January 5, 1999</t>
+  </si>
+  <si>
+    <t>April 14, 1999</t>
+  </si>
+  <si>
+    <t>October 5, 1999</t>
+  </si>
+  <si>
+    <t>July 19, 2000</t>
+  </si>
+  <si>
+    <t>February 22, 2001</t>
+  </si>
+  <si>
+    <t>July 18, 2001*</t>
+  </si>
+  <si>
+    <t>July 18, 2001</t>
+  </si>
+  <si>
+    <t>January 7, 2002</t>
+  </si>
+  <si>
+    <t>July 17, 2002</t>
+  </si>
+  <si>
+    <t>February 4, 2003</t>
+  </si>
+  <si>
+    <t>September 8, 2003</t>
+  </si>
+  <si>
+    <t>November 18, 2003</t>
+  </si>
+  <si>
+    <t>August 31, 2004</t>
+  </si>
+  <si>
+    <t>May 3, 2005</t>
+  </si>
+  <si>
+    <t>October 12, 2005</t>
+  </si>
+  <si>
+    <t>July 5, 2006</t>
+  </si>
+  <si>
+    <t>April 28, 2008</t>
+  </si>
+  <si>
+    <t>April 7, 2009</t>
+  </si>
+  <si>
+    <t>March 4, 2010*</t>
+  </si>
+  <si>
+    <t>July 27, 2010</t>
+  </si>
+  <si>
+    <t>May 3, 2011</t>
+  </si>
+  <si>
+    <t>August 8, 2011</t>
+  </si>
+  <si>
+    <t>March 5, 2013</t>
+  </si>
+  <si>
+    <t>September 24, 2013</t>
+  </si>
+  <si>
+    <t>June 18, 2014</t>
+  </si>
+  <si>
+    <t>October 13, 2015</t>
+  </si>
+  <si>
+    <t>March 19, 2019</t>
+  </si>
+  <si>
+    <t>M6709LL/A*</t>
+  </si>
+  <si>
+    <t>M7345LL/A*</t>
+  </si>
+  <si>
+    <t>M7440LL/A*</t>
+  </si>
+  <si>
+    <t>M7469LL/A</t>
+  </si>
+  <si>
+    <t>M7493LL/A*</t>
+  </si>
+  <si>
+    <t>M7668LL/A</t>
+  </si>
+  <si>
+    <t>M7667LL/A</t>
+  </si>
+  <si>
+    <t>M7639LL/A*</t>
+  </si>
+  <si>
+    <t>M7676LL/A*</t>
+  </si>
+  <si>
+    <t>M7651LL/A*</t>
+  </si>
+  <si>
+    <t>M7683LL/A</t>
+  </si>
+  <si>
+    <t>M7669LL/A*</t>
+  </si>
+  <si>
+    <t>M7680LL/A*</t>
+  </si>
+  <si>
+    <t>M8582LL/A*</t>
+  </si>
+  <si>
+    <t>M8492LL/A*</t>
+  </si>
+  <si>
+    <t>M8510LL/A*</t>
+  </si>
+  <si>
+    <t>M8672LL/A*</t>
+  </si>
+  <si>
+    <t>M8535LL/A*</t>
+  </si>
+  <si>
+    <t>M8812LL/A</t>
+  </si>
+  <si>
+    <t>M9105LL/A</t>
+  </si>
+  <si>
+    <t>M8935LL/A</t>
+  </si>
+  <si>
+    <t>M9285LL/A</t>
+  </si>
+  <si>
+    <t>M9168LL/A</t>
+  </si>
+  <si>
+    <t>M9290LL/A</t>
+  </si>
+  <si>
+    <t>M9248LL/A</t>
+  </si>
+  <si>
+    <t>M9249LL/A</t>
+  </si>
+  <si>
+    <t>M9250LL/A</t>
+  </si>
+  <si>
+    <t>M9843LL/A</t>
+  </si>
+  <si>
+    <t>M9844LL/A</t>
+  </si>
+  <si>
+    <t>M9845LL/A</t>
+  </si>
+  <si>
+    <t>MA063LL/A</t>
+  </si>
+  <si>
+    <t>MA064LL/A</t>
+  </si>
+  <si>
+    <t>MA199LL</t>
+  </si>
+  <si>
+    <t>MA200LL</t>
+  </si>
+  <si>
+    <t>MA406LL/A</t>
+  </si>
+  <si>
+    <t>MA710LL</t>
+  </si>
+  <si>
+    <t>MA590LL</t>
+  </si>
+  <si>
+    <t>MA589LL</t>
+  </si>
+  <si>
+    <t>MA456LL</t>
+  </si>
+  <si>
+    <t>MA876LL</t>
+  </si>
+  <si>
+    <t>MA877LL</t>
+  </si>
+  <si>
+    <t>MA878LL</t>
+  </si>
+  <si>
+    <t>MB323LL/A</t>
+  </si>
+  <si>
+    <t>MB324LL/A</t>
+  </si>
+  <si>
+    <t>MB325LL/A</t>
+  </si>
+  <si>
+    <t>MB398LL/A</t>
+  </si>
+  <si>
+    <t>MB417LL/A</t>
+  </si>
+  <si>
+    <t>MB418LL/A</t>
+  </si>
+  <si>
+    <t>MB419LL/A</t>
+  </si>
+  <si>
+    <t>MB420LL/A</t>
+  </si>
+  <si>
+    <t>MC015LL/A</t>
+  </si>
+  <si>
+    <t>MC015LL/B*</t>
+  </si>
+  <si>
+    <t>MB950LL/A*</t>
+  </si>
+  <si>
+    <t>MB952LL/A</t>
+  </si>
+  <si>
+    <t>MB953LL/A</t>
+  </si>
+  <si>
+    <t>MC507LL/A</t>
+  </si>
+  <si>
+    <t>MC508LL/A</t>
+  </si>
+  <si>
+    <t>MC509LL/A</t>
+  </si>
+  <si>
+    <t>MC510LL/A</t>
+  </si>
+  <si>
+    <t>MC511LL/A</t>
+  </si>
+  <si>
+    <t>MC784LL/A</t>
+  </si>
+  <si>
+    <t>MC309LL/A</t>
+  </si>
+  <si>
+    <t>MC812LL/A</t>
+  </si>
+  <si>
+    <t>MC813LL/A</t>
+  </si>
+  <si>
+    <t>MC814LL/A</t>
+  </si>
+  <si>
+    <t>MD063LL/A</t>
+  </si>
+  <si>
+    <t>MC978LL/A</t>
+  </si>
+  <si>
+    <t>MD093LL/A</t>
+  </si>
+  <si>
+    <t>MD094LL/A</t>
+  </si>
+  <si>
+    <t>MD095LL/A</t>
+  </si>
+  <si>
+    <t>MD096LL/A</t>
+  </si>
+  <si>
+    <t>ME699LL/A</t>
+  </si>
+  <si>
+    <t>ME086LL/A</t>
+  </si>
+  <si>
+    <t>ME087LL/A</t>
+  </si>
+  <si>
+    <t>ME088LL/A</t>
+  </si>
+  <si>
+    <t>ME089LL/A</t>
+  </si>
+  <si>
+    <t>MF125LL/A</t>
+  </si>
+  <si>
+    <t>MF883LL/A</t>
+  </si>
+  <si>
+    <t>MF886LL/A</t>
+  </si>
+  <si>
+    <t>MF885LL/A</t>
+  </si>
+  <si>
+    <t>MK142LL/A</t>
+  </si>
+  <si>
+    <t>MK442LL/A</t>
+  </si>
+  <si>
+    <t>MK452LL/A</t>
+  </si>
+  <si>
+    <t>MK462LL/A*</t>
+  </si>
+  <si>
+    <t>MK482LL/A</t>
+  </si>
+  <si>
+    <t>MMQA2LL/A</t>
+  </si>
+  <si>
+    <t>MNDY2LL/A</t>
+  </si>
+  <si>
+    <t>MNE02LL/A</t>
+  </si>
+  <si>
+    <t>MNE92LL/A</t>
+  </si>
+  <si>
+    <t>MNEA2LL/A</t>
+  </si>
+  <si>
+    <t>MNED2LL/A</t>
+  </si>
+  <si>
+    <t>MRT32LL/A</t>
+  </si>
+  <si>
+    <t>MRT42LL/A</t>
+  </si>
+  <si>
+    <t>MRQY2LL/A</t>
+  </si>
+  <si>
+    <t>MRR02LL/A</t>
+  </si>
+  <si>
+    <t>MRR12LL/A</t>
+  </si>
+  <si>
+    <t>iMac - Original</t>
+  </si>
+  <si>
+    <t>iMac - Fruit Colors</t>
+  </si>
+  <si>
+    <t>Slot Loading No FW</t>
+  </si>
+  <si>
+    <t>Slot Loading DV</t>
+  </si>
+  <si>
+    <t>Slot Loading DV SE</t>
+  </si>
+  <si>
+    <t>Summer 2000 - No FW/AP</t>
+  </si>
+  <si>
+    <t>Summer 2000 DV</t>
+  </si>
+  <si>
+    <t>Summer 2000 DV+</t>
+  </si>
+  <si>
+    <t>Summer 2000 DV SE</t>
+  </si>
+  <si>
+    <t>iMac - Early 2001</t>
+  </si>
+  <si>
+    <t>iMac - Summer 2001</t>
+  </si>
+  <si>
+    <t>iMac Flat Panel</t>
+  </si>
+  <si>
+    <t>iMac 17" Flat Panel</t>
+  </si>
+  <si>
+    <t>iMac Spring 2003</t>
+  </si>
+  <si>
+    <t>iMac 17" 1 GHz</t>
+  </si>
+  <si>
+    <t>iMac USB 2.0</t>
+  </si>
+  <si>
+    <t>iMac G5</t>
+  </si>
+  <si>
+    <t>Ambient Light Sensor</t>
+  </si>
+  <si>
+    <t>iSight</t>
+  </si>
+  <si>
+    <t>Mid-2006</t>
+  </si>
+  <si>
+    <t>Late 2006 CD</t>
+  </si>
+  <si>
+    <t>Late 2006 - 24"</t>
+  </si>
+  <si>
+    <t>Mid-2007 - 24"</t>
+  </si>
+  <si>
+    <t>Mid-2009 (Edu)</t>
+  </si>
+  <si>
+    <t>Late 2011 (Edu)</t>
+  </si>
+  <si>
+    <t>Early 2013 (Edu)</t>
+  </si>
+  <si>
+    <t>Mid-2014</t>
+  </si>
+  <si>
+    <t>Retina 5K, Late 2014</t>
+  </si>
+  <si>
+    <t>Retina 5K, Mid-2015</t>
+  </si>
+  <si>
+    <t>Late 2015</t>
+  </si>
+  <si>
+    <t>Retina 4K, Late 2015</t>
+  </si>
+  <si>
+    <t>Retina 5K, Late 2015</t>
+  </si>
+  <si>
+    <t>Retina 4K, Mid-2017</t>
+  </si>
+  <si>
+    <t>Retina 5K, Mid-2017</t>
+  </si>
+  <si>
+    <t>Retina 4K, 21.5-Inch, 2019</t>
+  </si>
+  <si>
+    <t>Retina 5K, 27-Inch, 2019</t>
+  </si>
+  <si>
+    <t>64 MB, 128 MB*</t>
+  </si>
+  <si>
+    <t>512 MB, 1 GB*</t>
+  </si>
+  <si>
+    <t>4.0 GB HDD</t>
+  </si>
+  <si>
+    <t>6.0 GB HDD</t>
+  </si>
+  <si>
+    <t>10.0 GB HDD</t>
+  </si>
+  <si>
+    <t>13.0 GB HDD</t>
+  </si>
+  <si>
+    <t>7.0 GB HDD</t>
+  </si>
+  <si>
+    <t>20.0 GB HDD</t>
+  </si>
+  <si>
+    <t>30.0 GB HDD</t>
+  </si>
+  <si>
+    <t>60.0 GB HDD</t>
+  </si>
+  <si>
+    <t>40 GB HDD</t>
+  </si>
+  <si>
+    <t>160.0 GB HDD</t>
+  </si>
+  <si>
+    <t>250.0 GB HDD</t>
+  </si>
+  <si>
+    <t>500 GB, 1 TB HDD</t>
+  </si>
+  <si>
+    <t>1 TB (Fusion)</t>
+  </si>
+  <si>
+    <t>2 TB (Fusion)</t>
+  </si>
+  <si>
+    <t>1 TB, 2 TB (Fusion)*</t>
+  </si>
+  <si>
+    <t>1 TB HDD/Fusion*</t>
+  </si>
+  <si>
+    <t>1, 2 TB* (Fusion)</t>
+  </si>
+  <si>
+    <t>March 18, 2003*</t>
+  </si>
+  <si>
+    <t>March 18, 2003</t>
+  </si>
+  <si>
+    <t>July 1, 2004</t>
+  </si>
+  <si>
+    <t>August 7, 2007*</t>
+  </si>
+  <si>
+    <t>March 4, 2010</t>
+  </si>
+  <si>
+    <t>March 7, 2012</t>
+  </si>
+  <si>
+    <t>M4984 (EMC None)</t>
+  </si>
+  <si>
+    <t>M5521 (EMC 1821)</t>
+  </si>
+  <si>
+    <t>M5521 (EMC 1857)</t>
+  </si>
+  <si>
+    <t>M6498 (EMC 1873)</t>
+  </si>
+  <si>
+    <t>M6498 (EMC 1936)</t>
+  </si>
+  <si>
+    <t>M6498 (EMC N/A)</t>
+  </si>
+  <si>
+    <t>M6498 (EMC 1956)</t>
+  </si>
+  <si>
+    <t>M6498 (EMC 1990)</t>
+  </si>
+  <si>
+    <t>M6498 (EMC 1991)</t>
+  </si>
+  <si>
+    <t>A1065 (EMC 1992)</t>
+  </si>
+  <si>
+    <t>A1058 (EMC 1989)</t>
+  </si>
+  <si>
+    <t>A1076 (EMC 2008)</t>
+  </si>
+  <si>
+    <t>A1058 (EMC 2055)</t>
+  </si>
+  <si>
+    <t>A1076 (EMC 2056)</t>
+  </si>
+  <si>
+    <t>A1144 (EMC 2081)</t>
+  </si>
+  <si>
+    <t>A1145 (EMC 2082)</t>
+  </si>
+  <si>
+    <t>A1173 (EMC 2104)</t>
+  </si>
+  <si>
+    <t>A1174 (EMC 2105)</t>
+  </si>
+  <si>
+    <t>A1195 (EMC 2110)</t>
+  </si>
+  <si>
+    <t>A1195 (EMC 2124)</t>
+  </si>
+  <si>
+    <t>A1208 (EMC 2114)</t>
+  </si>
+  <si>
+    <t>A1207 (EMC 2118)</t>
+  </si>
+  <si>
+    <t>A1200 (EMC 2111)</t>
+  </si>
+  <si>
+    <t>A1224 (EMC 2133)</t>
+  </si>
+  <si>
+    <t>A1225 (EMC 2134)</t>
+  </si>
+  <si>
+    <t>A1224 (EMC 2210)</t>
+  </si>
+  <si>
+    <t>A1225 (EMC 2211)</t>
+  </si>
+  <si>
+    <t>A1224 (EMC 2266)</t>
+  </si>
+  <si>
+    <t>A1225 (EMC 2267)</t>
+  </si>
+  <si>
+    <t>A1225 (EMC 2267/2134*)</t>
+  </si>
+  <si>
+    <t>A1224 (EMC 2316)</t>
+  </si>
+  <si>
+    <t>A1311 (EMC 2308)</t>
+  </si>
+  <si>
+    <t>A1312 (EMC 2309)</t>
+  </si>
+  <si>
+    <t>A1312 (EMC 2374)</t>
+  </si>
+  <si>
+    <t>A1311 (EMC 2389)</t>
+  </si>
+  <si>
+    <t>A1312 (EMC 2390)</t>
+  </si>
+  <si>
+    <t>A1311 (EMC 2428)</t>
+  </si>
+  <si>
+    <t>A1312 (EMC 2429)</t>
+  </si>
+  <si>
+    <t>A1311 (EMC 2496)</t>
+  </si>
+  <si>
+    <t>A1418 (EMC 2544)</t>
+  </si>
+  <si>
+    <t>A1419 (EMC 2546)</t>
+  </si>
+  <si>
+    <t>A1418 (EMC 2545)</t>
+  </si>
+  <si>
+    <t>A1418 (EMC 2638)</t>
+  </si>
+  <si>
+    <t>A1418 (EMC 2742)</t>
+  </si>
+  <si>
+    <t>A1419 (EMC 2639)</t>
+  </si>
+  <si>
+    <t>A1418 (EMC 2805)</t>
+  </si>
+  <si>
+    <t>A1419 (EMC 2806)</t>
+  </si>
+  <si>
+    <t>A1418 (EMC 2889)</t>
+  </si>
+  <si>
+    <t>A1418 (EMC 2833)</t>
+  </si>
+  <si>
+    <t>A1419 (EMC 2834)</t>
+  </si>
+  <si>
+    <t>A1418 (EMC 3068)</t>
+  </si>
+  <si>
+    <t>A1418 (EMC 3069)</t>
+  </si>
+  <si>
+    <t>A1419 (EMC 3070)</t>
+  </si>
+  <si>
+    <t>A2116 (EMC Pending)</t>
+  </si>
+  <si>
+    <t>A2115 (EMC Pending)</t>
+  </si>
+  <si>
+    <t>iMac,1</t>
+  </si>
+  <si>
+    <t>PowerMac2,1</t>
+  </si>
+  <si>
+    <t>PowerMac2,2</t>
+  </si>
+  <si>
+    <t>PowerMac4,1</t>
+  </si>
+  <si>
+    <t>PowerMac4,2</t>
+  </si>
+  <si>
+    <t>PowerMac4,5</t>
+  </si>
+  <si>
+    <t>PowerMac6,1</t>
+  </si>
+  <si>
+    <t>PowerMac6,3*</t>
+  </si>
+  <si>
+    <t>PowerMac6,3</t>
+  </si>
+  <si>
+    <t>PowerMac8,1</t>
+  </si>
+  <si>
+    <t>PowerMac8,2</t>
+  </si>
+  <si>
+    <t>PowerMac12,1</t>
+  </si>
+  <si>
+    <t>iMac4,1</t>
+  </si>
+  <si>
+    <t>iMac4,2</t>
+  </si>
+  <si>
+    <t>iMac5,2</t>
+  </si>
+  <si>
+    <t>iMac5,1</t>
+  </si>
+  <si>
+    <t>iMac6,1</t>
+  </si>
+  <si>
+    <t>iMac7,1</t>
+  </si>
+  <si>
+    <t>iMac8,1</t>
+  </si>
+  <si>
+    <t>iMac9,1</t>
+  </si>
+  <si>
+    <t>iMac10,1</t>
+  </si>
+  <si>
+    <t>iMac11,1</t>
+  </si>
+  <si>
+    <t>iMac11,2</t>
+  </si>
+  <si>
+    <t>iMac11,3</t>
+  </si>
+  <si>
+    <t>iMac12,1</t>
+  </si>
+  <si>
+    <t>iMac12,2</t>
+  </si>
+  <si>
+    <t>iMac13,1</t>
+  </si>
+  <si>
+    <t>iMac13,2</t>
+  </si>
+  <si>
+    <t>iMac14,1</t>
+  </si>
+  <si>
+    <t>iMac14,3</t>
+  </si>
+  <si>
+    <t>iMac14,2</t>
+  </si>
+  <si>
+    <t>iMac14,4</t>
+  </si>
+  <si>
+    <t>iMac15,1</t>
+  </si>
+  <si>
+    <t>iMac16,1</t>
+  </si>
+  <si>
+    <t>iMac16,2</t>
+  </si>
+  <si>
+    <t>iMac17,1</t>
+  </si>
+  <si>
+    <t>iMac18,1</t>
+  </si>
+  <si>
+    <t>iMac18,2</t>
+  </si>
+  <si>
+    <t>iMac18,3</t>
+  </si>
+  <si>
+    <t>iMac19,2</t>
+  </si>
+  <si>
+    <t>iMac19,1</t>
+  </si>
+  <si>
+    <t>2 MB, 6 MB</t>
+  </si>
+  <si>
+    <t>6 MB</t>
+  </si>
+  <si>
+    <t>8 MB</t>
+  </si>
+  <si>
+    <t>16 MB</t>
+  </si>
+  <si>
+    <t>128 MB*</t>
+  </si>
+  <si>
+    <t>1.7 GB</t>
+  </si>
+  <si>
+    <t>4, 8 GB*</t>
+  </si>
+  <si>
+    <t>24X CD-ROM</t>
+  </si>
+  <si>
+    <t>4X DVD-ROM</t>
+  </si>
+  <si>
+    <t>4X CD-RW</t>
+  </si>
+  <si>
+    <t>24X CD, 4X CD-RW*</t>
+  </si>
+  <si>
+    <t>10X CD-RW/"Combo"*</t>
+  </si>
+  <si>
+    <t>2X "SuperDrive"</t>
+  </si>
+  <si>
+    <t>32X "Combo Drive"</t>
+  </si>
+  <si>
+    <t>4X "SuperDrive"</t>
+  </si>
+  <si>
+    <t>DVD-ROM/CD-RW</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/233 Original - Bondi (Rev. A &amp; B) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/266 (Fruit Colors) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/333 (Fruit Colors) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/350 (Slot Loading - Blueberry) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/400 DV (Slot Loading - Fruit) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/400 DV SE (Slot Loading) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/350 (Summer 2000 - Indigo) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/400 DV (Summer 2000 - I/R) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/450 DV+ (Summer 2000) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/500 DV SE (Summer 2000) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/400 (Early 2001 - Indigo) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/500 (Early 2001 - Flower/Blue) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/600 SE (Early 2001) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/500 (Summer 2001 - I/S) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/600 (Summer 2001) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G3/700 SE (Summer 2001) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G4/700 (Flat Panel) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G4/800 (Flat Panel) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G4/800 17-Inch (Flat Panel) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G4/800 - X Only (Flat Panel) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G4/1.0 17-Inch (Flat Panel) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G4/1.0 15-Inch "FP" (USB 2.0) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G4/1.25 17-Inch "FP" (USB 2.0) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G4/1.25 20-Inch "FP" (USB 2.0) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G5/1.6 17-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G5/1.8 17-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G5/1.8 20-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G5/1.8 17-Inch (ALS) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G5/2.0 17-Inch (ALS) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G5/2.0 20-Inch (ALS) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G5/1.9 17-Inch (iSight) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac G5/2.1 20-Inch (iSight) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core Duo" 1.83 17-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core Duo" 2.0 20-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core Duo" 1.83 17-Inch (IG) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 1.83 17-Inch (IG) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.0 17-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.16 17-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.16 20-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.33 20-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.16 24-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.33 24-Inch Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.0 20-Inch (Al) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.4 20-Inch (Al) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.4 24-Inch (Al) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Extreme" 2.8 24-Inch (Al) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.4 20-Inch (Early 2008) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.66 20-Inch (Early 2008) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.8 24-Inch (Early 2008) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 3.06 24-Inch (Early 2008) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.66 20-Inch (Early 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.66 24-Inch (Early 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.93 24-Inch (Early 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 3.06 24-Inch (Early 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.0 20-Inch (Mid-2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 2.26 20-Inch (Mid-2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 3.06 21.5-Inch (Late 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 3.33 21.5-Inch (Late 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 3.06 27-Inch (Late 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core 2 Duo" 3.33 27-Inch (Late 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.66 27-Inch (Late 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 2.8 27-Inch (Late 2009) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i3" 3.06 21.5-Inch (Mid-2010) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i3" 3.2 21.5-Inch (Mid-2010) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.6 21.5-Inch (Mid-2010) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i3" 3.2 27-Inch (Mid-2010) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.8 27-Inch (Mid-2010) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.6 27-Inch (Mid-2010) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 2.93 27-Inch (Mid-2010) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.5 21.5-Inch (Mid-2011) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.7 21.5-Inch (Mid-2011) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 2.8 21.5-Inch (Mid-2011) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.7 27-Inch (Mid-2011) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.1 27-Inch (Mid-2011) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 3.4 27-Inch (Mid-2011) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i3" 3.1 21.5-Inch (Late 2011) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.7 21.5-Inch (Late 2012) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.9 21.5-Inch (Late 2012) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 3.1 21.5-Inch (Late 2012) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.9 27-Inch (Late 2012) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.2 27-Inch (Late 2012) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 3.4 27-Inch (Late 2012) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i3" 3.3 21.5-Inch (Early 2013) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.7 21.5-Inch (Late 2013) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.9 21.5-Inch (Late 2013) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 3.1 21.5-Inch (Late 2013) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.2 27-Inch (Late 2013) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.4 27-Inch (Late 2013) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 3.5 27-Inch (Late 2013) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 1.4 21.5-Inch (Mid-2014) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.5 27-Inch (5K, Late 2014) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 4.0 27-Inch (5K, Late 2014) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.3 27-Inch (5K, Mid-2015) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 1.6 21.5-Inch (Late 2015) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.8 21.5-Inch (Late 2015) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.1 21.5-Inch (4K, Late 2015) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 3.3 21.5-Inch (4K, Late 2015) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.2 27-Inch (5K, Late 2015) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.3 27-Inch (5K, Late 2015) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 4.0 27-Inch (5K, Late 2015) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 2.3 21.5-Inch (Mid-2017) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.0 21.5-Inch (4K, Mid-2017) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.4 21.5-Inch (4K, Mid-2017) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 3.6 21.5-Inch (4K, Mid-2017) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.4 27-Inch (5K, Mid-2017) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.5 27-Inch (5K, Mid-2017) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.8 27-Inch (5K, Mid-2017) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 4.2 27-Inch (5K, Mid-2017) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i3" 3.6 21.5-Inch (4K, Early 2019) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.0 21.5-Inch (4K, Early 2019) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i7" 3.2 21.5-Inch (4K, Early 2019) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.0 27-Inch (5K, Early 2019) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.1 27-Inch (5K, Early 2019) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i5" 3.7 27-Inch (5K, Early 2019) Specs</t>
+  </si>
+  <si>
+    <t>Complete iMac "Core i9" 3.6 27-Inch (5K, Early 2019) Specs</t>
   </si>
 </sst>
 </file>
@@ -22849,4 +24086,4680 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1822</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1960</v>
+      </c>
+      <c r="M8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1961</v>
+      </c>
+      <c r="M9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1899</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1963</v>
+      </c>
+      <c r="M11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1945</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1964</v>
+      </c>
+      <c r="M12">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1947</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M13">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M14">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1948</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1967</v>
+      </c>
+      <c r="M15">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E16" t="s">
+        <v>934</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1947</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1968</v>
+      </c>
+      <c r="M16">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E17" t="s">
+        <v>934</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1941</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1947</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1969</v>
+      </c>
+      <c r="M17">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1949</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E19" t="s">
+        <v>934</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E20" t="s">
+        <v>934</v>
+      </c>
+      <c r="F20" t="s">
+        <v>893</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1902</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E21" t="s">
+        <v>934</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1901</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1951</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1973</v>
+      </c>
+      <c r="M21">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E22" t="s">
+        <v>934</v>
+      </c>
+      <c r="F22" t="s">
+        <v>893</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1903</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E23" t="s">
+        <v>934</v>
+      </c>
+      <c r="F23" t="s">
+        <v>893</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1951</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E24" t="s">
+        <v>934</v>
+      </c>
+      <c r="F24" t="s">
+        <v>893</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1850</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E25" t="s">
+        <v>934</v>
+      </c>
+      <c r="F25" t="s">
+        <v>893</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1905</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E26" t="s">
+        <v>934</v>
+      </c>
+      <c r="F26" t="s">
+        <v>893</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1852</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E27" t="s">
+        <v>934</v>
+      </c>
+      <c r="F27" t="s">
+        <v>893</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1852</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E28" t="s">
+        <v>934</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1952</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1907</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G32" t="s">
+        <v>976</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>976</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1857</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>976</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1858</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1986</v>
+      </c>
+      <c r="M34">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>976</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1859</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1909</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1987</v>
+      </c>
+      <c r="M35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1910</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1953</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1988</v>
+      </c>
+      <c r="M36">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1911</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1953</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1989</v>
+      </c>
+      <c r="M37">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1912</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1990</v>
+      </c>
+      <c r="M38">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C39" t="s">
+        <v>844</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1912</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1991</v>
+      </c>
+      <c r="M39">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1912</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1942</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1992</v>
+      </c>
+      <c r="M40">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C41" t="s">
+        <v>844</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1912</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1942</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1993</v>
+      </c>
+      <c r="M41">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1942</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1994</v>
+      </c>
+      <c r="M42">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C43" t="s">
+        <v>844</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1942</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1995</v>
+      </c>
+      <c r="M43">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1996</v>
+      </c>
+      <c r="M44">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J45" t="s">
+        <v>934</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1997</v>
+      </c>
+      <c r="M45">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1866</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J46" t="s">
+        <v>934</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M46">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C47" t="s">
+        <v>844</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E47" t="s">
+        <v>887</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1866</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J47" t="s">
+        <v>934</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1999</v>
+      </c>
+      <c r="M47">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>986</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L48" t="s">
+        <v>2000</v>
+      </c>
+      <c r="M48">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E49" t="s">
+        <v>887</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G49" t="s">
+        <v>986</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J49" t="s">
+        <v>934</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L49" t="s">
+        <v>2001</v>
+      </c>
+      <c r="M49">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E50" t="s">
+        <v>887</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G50" t="s">
+        <v>986</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J50" t="s">
+        <v>934</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L50" t="s">
+        <v>2002</v>
+      </c>
+      <c r="M50">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E51" t="s">
+        <v>887</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G51" t="s">
+        <v>986</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1915</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L51" t="s">
+        <v>2003</v>
+      </c>
+      <c r="M51">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>986</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E52" t="s">
+        <v>887</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1916</v>
+      </c>
+      <c r="J52" t="s">
+        <v>934</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L52" t="s">
+        <v>2004</v>
+      </c>
+      <c r="M52">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>986</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E53" t="s">
+        <v>890</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1870</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1916</v>
+      </c>
+      <c r="J53" t="s">
+        <v>934</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L53" t="s">
+        <v>2005</v>
+      </c>
+      <c r="M53">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>986</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E54" t="s">
+        <v>890</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1870</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1916</v>
+      </c>
+      <c r="J54" t="s">
+        <v>934</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L54" t="s">
+        <v>2006</v>
+      </c>
+      <c r="M54">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>986</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E55" t="s">
+        <v>890</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1916</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L55" t="s">
+        <v>2007</v>
+      </c>
+      <c r="M55">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1916</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L56" t="s">
+        <v>2008</v>
+      </c>
+      <c r="M56">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1916</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L57" t="s">
+        <v>2009</v>
+      </c>
+      <c r="M57">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E58" t="s">
+        <v>890</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J58" t="s">
+        <v>934</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L58" t="s">
+        <v>2010</v>
+      </c>
+      <c r="M58">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C59" t="s">
+        <v>844</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E59" t="s">
+        <v>890</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J59" t="s">
+        <v>934</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L59" t="s">
+        <v>2011</v>
+      </c>
+      <c r="M59">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E60" t="s">
+        <v>890</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1874</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J60" t="s">
+        <v>934</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L60" t="s">
+        <v>2012</v>
+      </c>
+      <c r="M60">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C61" t="s">
+        <v>844</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E61" t="s">
+        <v>890</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1874</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J61" t="s">
+        <v>934</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L61" t="s">
+        <v>2013</v>
+      </c>
+      <c r="M61">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E62" t="s">
+        <v>890</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L62" t="s">
+        <v>2014</v>
+      </c>
+      <c r="M62">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E63" t="s">
+        <v>890</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L63" t="s">
+        <v>2015</v>
+      </c>
+      <c r="M63">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E64" t="s">
+        <v>890</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J64" t="s">
+        <v>934</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L64" t="s">
+        <v>2016</v>
+      </c>
+      <c r="M64">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E65" t="s">
+        <v>890</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L65" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M65">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C66" t="s">
+        <v>844</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E66" t="s">
+        <v>890</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L66" t="s">
+        <v>2018</v>
+      </c>
+      <c r="M66">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E67" t="s">
+        <v>890</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L67" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M67">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E68" t="s">
+        <v>890</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L68" t="s">
+        <v>2020</v>
+      </c>
+      <c r="M68">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C69" t="s">
+        <v>844</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E69" t="s">
+        <v>890</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L69" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M69">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E70" t="s">
+        <v>890</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1920</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L70" t="s">
+        <v>2022</v>
+      </c>
+      <c r="M70">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D71" t="s">
+        <v>878</v>
+      </c>
+      <c r="E71" t="s">
+        <v>890</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G71" t="s">
+        <v>474</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L71" t="s">
+        <v>2023</v>
+      </c>
+      <c r="M71">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D72" t="s">
+        <v>878</v>
+      </c>
+      <c r="E72" t="s">
+        <v>890</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G72" t="s">
+        <v>474</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L72" t="s">
+        <v>2024</v>
+      </c>
+      <c r="M72">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C73" t="s">
+        <v>844</v>
+      </c>
+      <c r="D73" t="s">
+        <v>878</v>
+      </c>
+      <c r="E73" t="s">
+        <v>890</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G73" t="s">
+        <v>474</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L73" t="s">
+        <v>2025</v>
+      </c>
+      <c r="M73">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D74" t="s">
+        <v>878</v>
+      </c>
+      <c r="E74" t="s">
+        <v>890</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G74" t="s">
+        <v>474</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1922</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L74" t="s">
+        <v>2026</v>
+      </c>
+      <c r="M74">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D75" t="s">
+        <v>878</v>
+      </c>
+      <c r="E75" t="s">
+        <v>890</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G75" t="s">
+        <v>474</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1922</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L75" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M75">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D76" t="s">
+        <v>878</v>
+      </c>
+      <c r="E76" t="s">
+        <v>890</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G76" t="s">
+        <v>474</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1922</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L76" t="s">
+        <v>2028</v>
+      </c>
+      <c r="M76">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1805</v>
+      </c>
+      <c r="E77" t="s">
+        <v>887</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1880</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1921</v>
+      </c>
+      <c r="J77" t="s">
+        <v>934</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L77" t="s">
+        <v>2029</v>
+      </c>
+      <c r="M77">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>474</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E78" t="s">
+        <v>719</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K78" t="s">
+        <v>939</v>
+      </c>
+      <c r="L78" t="s">
+        <v>2030</v>
+      </c>
+      <c r="M78">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>474</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E79" t="s">
+        <v>719</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K79" t="s">
+        <v>939</v>
+      </c>
+      <c r="L79" t="s">
+        <v>2031</v>
+      </c>
+      <c r="M79">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>474</v>
+      </c>
+      <c r="C80" t="s">
+        <v>844</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E80" t="s">
+        <v>719</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K80" t="s">
+        <v>939</v>
+      </c>
+      <c r="L80" t="s">
+        <v>2032</v>
+      </c>
+      <c r="M80">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>474</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E81" t="s">
+        <v>719</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K81" t="s">
+        <v>939</v>
+      </c>
+      <c r="L81" t="s">
+        <v>2033</v>
+      </c>
+      <c r="M81">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>474</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E82" t="s">
+        <v>719</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K82" t="s">
+        <v>939</v>
+      </c>
+      <c r="L82" t="s">
+        <v>2034</v>
+      </c>
+      <c r="M82">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>474</v>
+      </c>
+      <c r="C83" t="s">
+        <v>844</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E83" t="s">
+        <v>719</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K83" t="s">
+        <v>939</v>
+      </c>
+      <c r="L83" t="s">
+        <v>2035</v>
+      </c>
+      <c r="M83">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E84" t="s">
+        <v>890</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K84" t="s">
+        <v>939</v>
+      </c>
+      <c r="L84" t="s">
+        <v>2036</v>
+      </c>
+      <c r="M84">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E85" t="s">
+        <v>719</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1925</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K85" t="s">
+        <v>939</v>
+      </c>
+      <c r="L85" t="s">
+        <v>2037</v>
+      </c>
+      <c r="M85">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E86" t="s">
+        <v>719</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K86" t="s">
+        <v>939</v>
+      </c>
+      <c r="L86" t="s">
+        <v>2038</v>
+      </c>
+      <c r="M86">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C87" t="s">
+        <v>844</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E87" t="s">
+        <v>719</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K87" t="s">
+        <v>939</v>
+      </c>
+      <c r="L87" t="s">
+        <v>2039</v>
+      </c>
+      <c r="M87">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E88" t="s">
+        <v>719</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1121</v>
+      </c>
+      <c r="K88" t="s">
+        <v>939</v>
+      </c>
+      <c r="L88" t="s">
+        <v>2040</v>
+      </c>
+      <c r="M88">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E89" t="s">
+        <v>719</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G89" t="s">
+        <v>992</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J89" t="s">
+        <v>887</v>
+      </c>
+      <c r="K89" t="s">
+        <v>939</v>
+      </c>
+      <c r="L89" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M89">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E90" t="s">
+        <v>719</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G90" t="s">
+        <v>992</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J90" t="s">
+        <v>887</v>
+      </c>
+      <c r="K90" t="s">
+        <v>939</v>
+      </c>
+      <c r="L90" t="s">
+        <v>2042</v>
+      </c>
+      <c r="M90">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E91" t="s">
+        <v>719</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1887</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J91" t="s">
+        <v>938</v>
+      </c>
+      <c r="K91" t="s">
+        <v>939</v>
+      </c>
+      <c r="L91" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M91">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>355</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E92" t="s">
+        <v>719</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J92" t="s">
+        <v>887</v>
+      </c>
+      <c r="K92" t="s">
+        <v>939</v>
+      </c>
+      <c r="L92" t="s">
+        <v>2044</v>
+      </c>
+      <c r="M92">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>355</v>
+      </c>
+      <c r="C93" t="s">
+        <v>844</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E93" t="s">
+        <v>719</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J93" t="s">
+        <v>887</v>
+      </c>
+      <c r="K93" t="s">
+        <v>939</v>
+      </c>
+      <c r="L93" t="s">
+        <v>2045</v>
+      </c>
+      <c r="M93">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>992</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E94" t="s">
+        <v>719</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J94" t="s">
+        <v>887</v>
+      </c>
+      <c r="K94" t="s">
+        <v>939</v>
+      </c>
+      <c r="L94" t="s">
+        <v>2046</v>
+      </c>
+      <c r="M94">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E95" t="s">
+        <v>719</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G95" t="s">
+        <v>478</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J95" t="s">
+        <v>938</v>
+      </c>
+      <c r="K95" t="s">
+        <v>939</v>
+      </c>
+      <c r="L95" t="s">
+        <v>2047</v>
+      </c>
+      <c r="M95">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E96" t="s">
+        <v>719</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G96" t="s">
+        <v>478</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1889</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1931</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1943</v>
+      </c>
+      <c r="K96" t="s">
+        <v>939</v>
+      </c>
+      <c r="L96" t="s">
+        <v>2048</v>
+      </c>
+      <c r="M96">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E97" t="s">
+        <v>719</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G97" t="s">
+        <v>478</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1931</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1943</v>
+      </c>
+      <c r="K97" t="s">
+        <v>939</v>
+      </c>
+      <c r="L97" t="s">
+        <v>2049</v>
+      </c>
+      <c r="M97">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C98" t="s">
+        <v>844</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E98" t="s">
+        <v>719</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G98" t="s">
+        <v>478</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1931</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1943</v>
+      </c>
+      <c r="K98" t="s">
+        <v>939</v>
+      </c>
+      <c r="L98" t="s">
+        <v>2050</v>
+      </c>
+      <c r="M98">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="1">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E99" t="s">
+        <v>719</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G99" t="s">
+        <v>478</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J99" t="s">
+        <v>887</v>
+      </c>
+      <c r="K99" t="s">
+        <v>939</v>
+      </c>
+      <c r="L99" t="s">
+        <v>2051</v>
+      </c>
+      <c r="M99">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E100" t="s">
+        <v>719</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G100" t="s">
+        <v>478</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J100" t="s">
+        <v>887</v>
+      </c>
+      <c r="K100" t="s">
+        <v>939</v>
+      </c>
+      <c r="L100" t="s">
+        <v>2052</v>
+      </c>
+      <c r="M100">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C101" t="s">
+        <v>844</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E101" t="s">
+        <v>719</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G101" t="s">
+        <v>478</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1932</v>
+      </c>
+      <c r="J101" t="s">
+        <v>887</v>
+      </c>
+      <c r="K101" t="s">
+        <v>939</v>
+      </c>
+      <c r="L101" t="s">
+        <v>2053</v>
+      </c>
+      <c r="M101">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>478</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E102" t="s">
+        <v>719</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1892</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1933</v>
+      </c>
+      <c r="K102" t="s">
+        <v>939</v>
+      </c>
+      <c r="L102" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M102">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>478</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E103" t="s">
+        <v>719</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J103" t="s">
+        <v>887</v>
+      </c>
+      <c r="K103" t="s">
+        <v>939</v>
+      </c>
+      <c r="L103" t="s">
+        <v>2055</v>
+      </c>
+      <c r="M103">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>478</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E104" t="s">
+        <v>719</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J104" t="s">
+        <v>890</v>
+      </c>
+      <c r="K104" t="s">
+        <v>939</v>
+      </c>
+      <c r="L104" t="s">
+        <v>2056</v>
+      </c>
+      <c r="M104">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>478</v>
+      </c>
+      <c r="C105" t="s">
+        <v>844</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1813</v>
+      </c>
+      <c r="E105" t="s">
+        <v>719</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1893</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K105" t="s">
+        <v>939</v>
+      </c>
+      <c r="L105" t="s">
+        <v>2057</v>
+      </c>
+      <c r="M105">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="1">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>478</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E106" t="s">
+        <v>719</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J106" t="s">
+        <v>890</v>
+      </c>
+      <c r="K106" t="s">
+        <v>939</v>
+      </c>
+      <c r="L106" t="s">
+        <v>2058</v>
+      </c>
+      <c r="M106">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>478</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E107" t="s">
+        <v>719</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J107" t="s">
+        <v>890</v>
+      </c>
+      <c r="K107" t="s">
+        <v>939</v>
+      </c>
+      <c r="L107" t="s">
+        <v>2059</v>
+      </c>
+      <c r="M107">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>478</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E108" t="s">
+        <v>719</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1832</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J108" t="s">
+        <v>719</v>
+      </c>
+      <c r="K108" t="s">
+        <v>939</v>
+      </c>
+      <c r="L108" t="s">
+        <v>2060</v>
+      </c>
+      <c r="M108">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>478</v>
+      </c>
+      <c r="C109" t="s">
+        <v>844</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E109" t="s">
+        <v>719</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1944</v>
+      </c>
+      <c r="K109" t="s">
+        <v>939</v>
+      </c>
+      <c r="L109" t="s">
+        <v>2061</v>
+      </c>
+      <c r="M109">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="1">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E110" t="s">
+        <v>719</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J110" t="s">
+        <v>887</v>
+      </c>
+      <c r="K110" t="s">
+        <v>939</v>
+      </c>
+      <c r="L110" t="s">
+        <v>2062</v>
+      </c>
+      <c r="M110">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="1">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E111" t="s">
+        <v>719</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J111" t="s">
+        <v>891</v>
+      </c>
+      <c r="K111" t="s">
+        <v>939</v>
+      </c>
+      <c r="L111" t="s">
+        <v>2063</v>
+      </c>
+      <c r="M111">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="1">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C112" t="s">
+        <v>844</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E112" t="s">
+        <v>719</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K112" t="s">
+        <v>939</v>
+      </c>
+      <c r="L112" t="s">
+        <v>2064</v>
+      </c>
+      <c r="M112">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="1">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E113" t="s">
+        <v>719</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J113" t="s">
+        <v>890</v>
+      </c>
+      <c r="K113" t="s">
+        <v>939</v>
+      </c>
+      <c r="L113" t="s">
+        <v>2065</v>
+      </c>
+      <c r="M113">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="1">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E114" t="s">
+        <v>719</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J114" t="s">
+        <v>890</v>
+      </c>
+      <c r="K114" t="s">
+        <v>939</v>
+      </c>
+      <c r="L114" t="s">
+        <v>2066</v>
+      </c>
+      <c r="M114">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="1">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E115" t="s">
+        <v>719</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J115" t="s">
+        <v>718</v>
+      </c>
+      <c r="K115" t="s">
+        <v>939</v>
+      </c>
+      <c r="L115" t="s">
+        <v>2067</v>
+      </c>
+      <c r="M115">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="1">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C116" t="s">
+        <v>844</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E116" t="s">
+        <v>719</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1937</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1944</v>
+      </c>
+      <c r="K116" t="s">
+        <v>939</v>
+      </c>
+      <c r="L116" t="s">
+        <v>2068</v>
+      </c>
+      <c r="M116">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>